--- a/app/src/main/resources/migration/HAS-DB-설계개요.xlsx
+++ b/app/src/main/resources/migration/HAS-DB-설계개요.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ws_intellij\hywtl_has\app\src\main\resources\migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amist\IdeaProjects\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B97FCD-63E7-4D89-9DA5-96D984EECA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FABA16-17A4-4146-ACC7-83282900C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11696" uniqueCount="4052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11882" uniqueCount="4108">
   <si>
     <t>PN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13114,6 +13114,174 @@
   </si>
   <si>
     <t>경기도 양주시 은현면 용암리 784-8번지 일원</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 역삼동 708-7, 708-41</t>
+  </si>
+  <si>
+    <t>경기도 시흥시 신천동 707-10</t>
+  </si>
+  <si>
+    <t>서울특별시 금천구 독산동 292-6 외 11필지</t>
+  </si>
+  <si>
+    <t>대전광역시 동구 가오동 394,394-3번지 일원</t>
+  </si>
+  <si>
+    <t>부산광역시 연제구 연산동 산4번지 일원</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 우동 642-1번지</t>
+  </si>
+  <si>
+    <t>충청남도 아산시 음봉면 월랑리 536 일원</t>
+  </si>
+  <si>
+    <t>부산광역시 남구 우암동 189번지 일원</t>
+  </si>
+  <si>
+    <t>충청남도 아산시 배방읍 공수리 280-3번지 일원</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 65-8번지 일대</t>
+  </si>
+  <si>
+    <t>경기도 부천시 소사본동 134번지 일원</t>
+  </si>
+  <si>
+    <t>화성 비봉 택지개발지구내 B-1블럭(경기도 화성시 비봉면 삼화리 242번지 일원)</t>
+  </si>
+  <si>
+    <t>경기도 안양시 동안구 비산동 354-10번지 일원</t>
+  </si>
+  <si>
+    <t>경기도 오산시 세교동 588-2,3,4번지</t>
+  </si>
+  <si>
+    <t>인천 미추홀구 용현동 628-5번지 외 2필지</t>
+  </si>
+  <si>
+    <t>충청북도 음성군 금왕읍 무극리 504-5번지 일원</t>
+  </si>
+  <si>
+    <t>울산 학산동 89-6번지 일원</t>
+  </si>
+  <si>
+    <t>부산 해운대구 우동 540-4번지 일원</t>
+  </si>
+  <si>
+    <t>전라북도 군산시 경장동 520-1외 8필지</t>
+  </si>
+  <si>
+    <t>부산광역시 부산진구 부전동 240-8번지 외 1필지(240-24)</t>
+  </si>
+  <si>
+    <t>경기도 안양시</t>
+  </si>
+  <si>
+    <t>강원도 강릉시 포남동 1153, 1153-2번지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 마평동 730-8번지 외</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구 상도동 182-13번지 일원</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 오룡동 114번지 외 3필지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사읍 아곡리705번지(7BL)</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 영등포동5가 32-8 일원</t>
+  </si>
+  <si>
+    <t>경기도 양주시 덕정동 191외 2필지, 193-1외 4필지</t>
+  </si>
+  <si>
+    <t>울산광역시 울주군 삼남읍 교동리 1679-1번지</t>
+  </si>
+  <si>
+    <t>화성 동탄2택지개발지구 지원시설용지 76BL-1,2LT</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 유천동 341-1번지 일원</t>
+  </si>
+  <si>
+    <t>대전광역시 서구 둔산동 917,918,919번지</t>
+  </si>
+  <si>
+    <t>화성 병점동 690-3번지 일원 (화성병점복합타운 내 도시지원시설)</t>
+  </si>
+  <si>
+    <t>인천광역시 서구 검단지구 내 AB20-1BL</t>
+  </si>
+  <si>
+    <t>경기도 안성시 석정동 154-11번지 일원</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 방배동 1018-1 일대</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 전대리 192-2외 5필지</t>
+  </si>
+  <si>
+    <t>경기도 남양주시 퇴계원읍 퇴계원리 142-27번지 일원</t>
+  </si>
+  <si>
+    <t>울산광역시 남구 삼산동 1559-19번지 일대</t>
+  </si>
+  <si>
+    <t>충청북도 음성군 음성읍 읍내리 489-6외 20필지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 금어리 646번지 일원</t>
+  </si>
+  <si>
+    <t>청주시 흥덕구 오송읍 연제리 664-1번지</t>
+  </si>
+  <si>
+    <t>경기도 남양주시 화도읍 마석우리 160번지 일원</t>
+  </si>
+  <si>
+    <t>충청북도 청주시 상당구 남주동 180번지 일원</t>
+  </si>
+  <si>
+    <t>부산 해운대구 우동 626-1,9,10</t>
+  </si>
+  <si>
+    <t>경상북도 영주시 휴천동 산1-1번지 일원</t>
+  </si>
+  <si>
+    <t>부산광역시 부산진구 범천동 870-26번지 외 3필지 (870-29, 870-37, 870-38)</t>
+  </si>
+  <si>
+    <t>대전광역시 중구 유천동 332-28 일원</t>
+  </si>
+  <si>
+    <t>부산광역시 부산진구 당감동 866-1번지 외 30필지</t>
+  </si>
+  <si>
+    <t>경기도 안양시 동안구 관양동 951-1</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 우동 1104-1번지 일원</t>
+  </si>
+  <si>
+    <t>경기도 이천시 안흥동 277-12, 279-1, 284-2번지 일대</t>
+  </si>
+  <si>
+    <t>강원도 원주시 단구동 922번지 일원 도시개발사업 구역 내 A1,2블럭</t>
+  </si>
+  <si>
+    <t>경기도 평택시 합정동 835번지 일원</t>
+  </si>
+  <si>
+    <t>경기도 파주시 목동동 산 26일원 (파주운정3지구 A19BL)</t>
+  </si>
+  <si>
+    <t>부천시 심곡본동 552-4, 552-7, 552-9, 552-11</t>
   </si>
 </sst>
 </file>
@@ -13728,10 +13896,10 @@
   <dimension ref="A1:DM2010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1588" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14355,7 +14523,7 @@
       <c r="I26" s="1"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:45" ht="39">
+    <row r="27" spans="1:45">
       <c r="A27" s="1">
         <v>17034</v>
       </c>
@@ -59948,32 +60116,26 @@
       <c r="B1586" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1586" s="1" t="str">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>강남구 역삼동 업무시설 신축공사</v>
-      </c>
-      <c r="D1586" s="1" t="str">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>서울특별시 강남구 역삼동 708-7, 708-41</v>
-      </c>
-      <c r="H1586" s="1" t="str">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1586" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1586" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="H1586" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1586" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1586" s="26"/>
       <c r="K1586" s="26">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1082</v>
       </c>
       <c r="L1586" s="26">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>13764.55</v>
       </c>
       <c r="N1586" s="1">
-        <f>VLOOKUP(migration!A1586,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>19</v>
       </c>
       <c r="O1586" s="33"/>
@@ -59985,36 +60147,29 @@
       <c r="B1587" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1587" s="1" t="str">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>경기도 시흥시 신천동 오피스텔 신축설계</v>
-      </c>
-      <c r="D1587" s="1" t="str">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 시흥시 신천동 707-10</v>
-      </c>
-      <c r="H1587" s="1" t="str">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1587" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1587" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="H1587" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1587" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1587" s="26"/>
       <c r="K1587" s="26">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2979.1</v>
       </c>
       <c r="L1587" s="26">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>60946.75</v>
       </c>
       <c r="M1587" s="1">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>302</v>
       </c>
       <c r="N1587" s="1">
-        <f>VLOOKUP(migration!A1587,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>45</v>
       </c>
       <c r="O1587" s="33"/>
@@ -60068,36 +60223,29 @@
       <c r="B1592" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1592" s="1" t="str">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>독산동 역세권청년주택 신축공사</v>
-      </c>
-      <c r="D1592" s="1" t="str">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>서울특별시 금천구 독산동 292-6 외 11필지</v>
-      </c>
-      <c r="H1592" s="1" t="str">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1592" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1592" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="H1592" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1592" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1592" s="26"/>
       <c r="K1592" s="26">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2942.2</v>
       </c>
       <c r="L1592" s="26">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>42373.379099999998</v>
       </c>
       <c r="M1592" s="1">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>589</v>
       </c>
       <c r="N1592" s="1">
-        <f>VLOOKUP(migration!A1592,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>32</v>
       </c>
       <c r="O1592" s="33"/>
@@ -60141,36 +60289,29 @@
       <c r="B1596" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1596" s="1" t="str">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>가오동2구역 재건축정비사업</v>
-      </c>
-      <c r="D1596" s="1" t="str">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>대전광역시 동구 가오동 394,394-3번지 일원</v>
-      </c>
-      <c r="H1596" s="1" t="str">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="C1596" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1596" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="H1596" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1596" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1596" s="26"/>
       <c r="K1596" s="26">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>44346</v>
       </c>
       <c r="L1596" s="26">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>151472.1</v>
       </c>
       <c r="M1596" s="1">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>952</v>
       </c>
       <c r="N1596" s="1">
-        <f>VLOOKUP(migration!A1596,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>33</v>
       </c>
       <c r="O1596" s="33"/>
@@ -60202,36 +60343,29 @@
       <c r="B1599" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1599" s="1" t="str">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>부산광역시 연제구 연산동 공동주택 신축공사</v>
-      </c>
-      <c r="D1599" s="1" t="str">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 연제구 연산동 산4번지 일원</v>
-      </c>
-      <c r="H1599" s="1" t="str">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1599" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1599" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="H1599" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1599" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1599" s="26"/>
       <c r="K1599" s="26">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>15090</v>
       </c>
       <c r="L1599" s="26">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>53244.918400000002</v>
       </c>
       <c r="M1599" s="1">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>334</v>
       </c>
       <c r="N1599" s="1">
-        <f>VLOOKUP(migration!A1599,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1599" s="33"/>
@@ -60243,36 +60377,29 @@
       <c r="B1600" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1600" s="1" t="str">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>부산광역시 해운대구 우동 642-1번지 일원 복합시설 신축공사</v>
-      </c>
-      <c r="D1600" s="1" t="str">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 해운대구 우동 642-1번지</v>
-      </c>
-      <c r="H1600" s="1" t="str">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1600" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1600" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="H1600" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1600" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1600" s="26"/>
       <c r="K1600" s="26">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1555.3</v>
       </c>
       <c r="L1600" s="26">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>25085.040000000001</v>
       </c>
       <c r="M1600" s="1">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>122</v>
       </c>
       <c r="N1600" s="1">
-        <f>VLOOKUP(migration!A1600,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1600" s="33"/>
@@ -60414,36 +60541,29 @@
       <c r="B1614" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1614" s="1" t="str">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>아산 음봉 일반산업단지 내 공동주택용지</v>
-      </c>
-      <c r="D1614" s="1" t="str">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>충청남도 아산시 음봉면 월랑리 536 일원</v>
-      </c>
-      <c r="H1614" s="1" t="str">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1614" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="H1614" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1614" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1614" s="26"/>
       <c r="K1614" s="26">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>63280</v>
       </c>
       <c r="L1614" s="26">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>145494.16</v>
       </c>
       <c r="M1614" s="1">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1348</v>
       </c>
       <c r="N1614" s="1">
-        <f>VLOOKUP(migration!A1614,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>27</v>
       </c>
       <c r="O1614" s="33"/>
@@ -60465,39 +60585,31 @@
       <c r="B1616" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1616" s="1" t="str">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>우암1구역 주택재개발 정비사업</v>
-      </c>
-      <c r="D1616" s="1" t="str">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 남구 우암동 189번지 일원</v>
-      </c>
-      <c r="H1616" s="1" t="str">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="C1616" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="H1616" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1616" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1616" s="26">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,10,FALSE)</f>
         <v>100490.5</v>
       </c>
       <c r="K1616" s="26">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>77808.800000000003</v>
       </c>
       <c r="L1616" s="26">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>355684.11</v>
       </c>
       <c r="M1616" s="1">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>2205</v>
       </c>
       <c r="N1616" s="1">
-        <f>VLOOKUP(migration!A1616,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>36</v>
       </c>
       <c r="O1616" s="33"/>
@@ -60519,36 +60631,29 @@
       <c r="B1618" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1618" s="1" t="str">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>아산 배방 공수리 공동주택 신축공사</v>
-      </c>
-      <c r="D1618" s="1" t="str">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>충청남도 아산시 배방읍 공수리 280-3번지 일원</v>
-      </c>
-      <c r="H1618" s="1" t="str">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1618" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="H1618" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1618" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1618" s="26"/>
       <c r="K1618" s="26">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>10394.1</v>
       </c>
       <c r="L1618" s="26">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>31003.734400000001</v>
       </c>
       <c r="M1618" s="1">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>195</v>
       </c>
       <c r="N1618" s="1">
-        <f>VLOOKUP(migration!A1618,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>20</v>
       </c>
       <c r="O1618" s="33"/>
@@ -60652,36 +60757,29 @@
       <c r="B1628" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1628" s="1" t="str">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>경기도 부천시 소사역세권 오피스텔 신축사업</v>
-      </c>
-      <c r="D1628" s="1" t="str">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 부천시 소사본동 65-8번지 일대</v>
-      </c>
-      <c r="H1628" s="1" t="str">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1628" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="H1628" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1628" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1628" s="26"/>
       <c r="K1628" s="26">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2935.7</v>
       </c>
       <c r="L1628" s="26">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>16202.88</v>
       </c>
       <c r="M1628" s="1">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>102</v>
       </c>
       <c r="N1628" s="1">
-        <f>VLOOKUP(migration!A1628,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>19</v>
       </c>
       <c r="O1628" s="33"/>
@@ -60783,13 +60881,11 @@
       <c r="B1638" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C1638" s="1" t="str">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>부천 소사 공동주택 개발사업 신축공사</v>
-      </c>
-      <c r="D1638" s="1" t="str">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 부천시 소사본동 134번지 일원</v>
+      <c r="C1638" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>4062</v>
       </c>
       <c r="E1638" s="1" t="s">
         <v>3207</v>
@@ -60800,28 +60896,23 @@
       <c r="G1638" s="1">
         <v>1</v>
       </c>
-      <c r="H1638" s="1" t="str">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1638" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1638" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1638" s="26"/>
       <c r="K1638" s="26">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>36722</v>
       </c>
       <c r="L1638" s="26">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>159693.63769999999</v>
       </c>
       <c r="M1638" s="1">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>983</v>
       </c>
       <c r="N1638" s="1">
-        <f>VLOOKUP(migration!A1638,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1638" s="33">
@@ -60865,13 +60956,11 @@
       <c r="B1639" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C1639" s="1" t="str">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>화성비봉 B-1BL 금성백조 예미지 2차 설계용역 계약서</v>
-      </c>
-      <c r="D1639" s="1" t="str">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>화성 비봉 택지개발지구내 B-1블럭(경기도 화성시 비봉면 삼화리 242번지 일원)</v>
+      <c r="C1639" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>4063</v>
       </c>
       <c r="E1639" s="1" t="s">
         <v>3244</v>
@@ -60882,28 +60971,23 @@
       <c r="G1639" s="1">
         <v>1</v>
       </c>
-      <c r="H1639" s="1" t="str">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1639" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1639" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1639" s="26"/>
       <c r="K1639" s="26">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>30919</v>
       </c>
       <c r="L1639" s="26">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>81284.418300000005</v>
       </c>
       <c r="M1639" s="1">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>530</v>
       </c>
       <c r="N1639" s="1">
-        <f>VLOOKUP(migration!A1639,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>25</v>
       </c>
       <c r="O1639" s="33">
@@ -60967,29 +61051,24 @@
       <c r="B1642" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C1642" s="1" t="str">
-        <f>VLOOKUP(migration!A1642,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>뉴타운맨션삼호아파트지구 주택재건축정비사업</v>
-      </c>
-      <c r="D1642" s="1" t="str">
-        <f>VLOOKUP(migration!A1642,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 안양시 동안구 비산동 354-10번지 일원</v>
-      </c>
-      <c r="H1642" s="1" t="str">
-        <f>VLOOKUP(migration!A1642,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="C1642" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1642" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="H1642" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1642" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1642" s="26"/>
       <c r="K1642" s="26">
-        <f>VLOOKUP(migration!A1642,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>128037.2</v>
       </c>
       <c r="L1642" s="26"/>
       <c r="M1642" s="1">
-        <f>VLOOKUP(migration!A1642,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>2723</v>
       </c>
       <c r="O1642" s="33"/>
@@ -61001,13 +61080,11 @@
       <c r="B1643" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C1643" s="1" t="str">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>오산 세교동 588-2,3,4번지 오피스텔 신축공사 풍동실험</v>
-      </c>
-      <c r="D1643" s="1" t="str">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 오산시 세교동 588-2,3,4번지</v>
+      <c r="C1643" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1643" s="1" t="s">
+        <v>4065</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>3206</v>
@@ -61018,28 +61095,23 @@
       <c r="G1643" s="1">
         <v>1</v>
       </c>
-      <c r="H1643" s="1" t="str">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1643" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1643" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1643" s="26"/>
       <c r="K1643" s="26">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2824.2</v>
       </c>
       <c r="L1643" s="26">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>33835.71</v>
       </c>
       <c r="M1643" s="1">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>180</v>
       </c>
       <c r="N1643" s="1">
-        <f>VLOOKUP(migration!A1643,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>24</v>
       </c>
       <c r="O1643" s="33">
@@ -61091,9 +61163,8 @@
       <c r="B1646" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C1646" s="1" t="str">
-        <f>VLOOKUP(migration!A1646,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>대전시 용문동 1,2,3구역 재개발정비사업 재실험</v>
+      <c r="C1646" s="1" t="s">
+        <v>3123</v>
       </c>
       <c r="D1646" s="1" t="s">
         <v>3255</v>
@@ -61107,9 +61178,8 @@
       <c r="G1646" s="1">
         <v>1</v>
       </c>
-      <c r="H1646" s="1" t="str">
-        <f>VLOOKUP(migration!A1646,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1646" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1646" s="24" t="s">
         <v>3236</v>
@@ -61182,13 +61252,11 @@
       <c r="B1647" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C1647" s="1" t="str">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용현동 오피스텔 신축공사</v>
-      </c>
-      <c r="D1647" s="1" t="str">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>인천 미추홀구 용현동 628-5번지 외 2필지</v>
+      <c r="C1647" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D1647" s="1" t="s">
+        <v>4066</v>
       </c>
       <c r="E1647" s="1" t="s">
         <v>2870</v>
@@ -61199,28 +61267,23 @@
       <c r="G1647" s="1">
         <v>1</v>
       </c>
-      <c r="H1647" s="1" t="str">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1647" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1647" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1647" s="26"/>
       <c r="K1647" s="26">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1167</v>
       </c>
       <c r="L1647" s="26">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>11165.6</v>
       </c>
       <c r="M1647" s="1">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>96</v>
       </c>
       <c r="N1647" s="1">
-        <f>VLOOKUP(migration!A1647,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>19</v>
       </c>
       <c r="O1647" s="33">
@@ -61286,13 +61349,11 @@
       <c r="B1652" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C1652" s="1" t="str">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>충북 음성 금왕지구 공동주택 신축공사</v>
-      </c>
-      <c r="D1652" s="1" t="str">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>충청북도 음성군 금왕읍 무극리 504-5번지 일원</v>
+      <c r="C1652" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1652" s="1" t="s">
+        <v>4067</v>
       </c>
       <c r="E1652" s="1" t="s">
         <v>3253</v>
@@ -61303,28 +61364,23 @@
       <c r="G1652" s="1">
         <v>1</v>
       </c>
-      <c r="H1652" s="1" t="str">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1652" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1652" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1652" s="26"/>
       <c r="K1652" s="26">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>74778</v>
       </c>
       <c r="L1652" s="26">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>241782.49489999999</v>
       </c>
       <c r="M1652" s="1">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1224</v>
       </c>
       <c r="N1652" s="1">
-        <f>VLOOKUP(migration!A1652,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>27</v>
       </c>
       <c r="O1652" s="33">
@@ -61412,13 +61468,11 @@
       <c r="B1656" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C1656" s="1" t="str">
-        <f>VLOOKUP(migration!A1656,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>울산 학상동 89-6번지 일원 주상복합 신축공사</v>
-      </c>
-      <c r="D1656" s="1" t="str">
-        <f>VLOOKUP(migration!A1656,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>울산 학산동 89-6번지 일원</v>
+      <c r="C1656" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1656" s="1" t="s">
+        <v>4068</v>
       </c>
       <c r="E1656" s="1" t="s">
         <v>2879</v>
@@ -61429,9 +61483,8 @@
       <c r="G1656" s="1">
         <v>1</v>
       </c>
-      <c r="H1656" s="1" t="str">
-        <f>VLOOKUP(migration!A1656,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1656" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1656" s="24" t="s">
         <v>3178</v>
@@ -61486,17 +61539,14 @@
       <c r="B1657" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C1657" s="1" t="str">
-        <f>VLOOKUP(migration!A1657,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>해운대구 우동 540-4번지 일원 업무시설(오피스텔) 신축공사</v>
-      </c>
-      <c r="D1657" s="1" t="str">
-        <f>VLOOKUP(migration!A1657,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산 해운대구 우동 540-4번지 일원</v>
-      </c>
-      <c r="H1657" s="1" t="str">
-        <f>VLOOKUP(migration!A1657,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1657" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1657" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="H1657" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1657" s="1" t="s">
         <v>2868</v>
@@ -61513,13 +61563,11 @@
       <c r="B1658" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C1658" s="1" t="str">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>전라북도 군산시 경장동 520-1외8필지 공동주택&amp;근린생활시설</v>
-      </c>
-      <c r="D1658" s="1" t="str">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>전라북도 군산시 경장동 520-1외 8필지</v>
+      <c r="C1658" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D1658" s="1" t="s">
+        <v>4070</v>
       </c>
       <c r="E1658" s="1" t="s">
         <v>3251</v>
@@ -61530,28 +61578,23 @@
       <c r="G1658" s="1">
         <v>1</v>
       </c>
-      <c r="H1658" s="1" t="str">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1658" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1658" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1658" s="26"/>
       <c r="K1658" s="26">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>4006.7</v>
       </c>
       <c r="L1658" s="26">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>52334.451000000001</v>
       </c>
       <c r="M1658" s="1">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>268</v>
       </c>
       <c r="N1658" s="1">
-        <f>VLOOKUP(migration!A1658,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>39</v>
       </c>
       <c r="O1658" s="33">
@@ -61577,13 +61620,11 @@
       <c r="B1659" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C1659" s="1" t="str">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>부산진구 부전동 근린생활시설 신축공사</v>
-      </c>
-      <c r="D1659" s="1" t="str">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 부산진구 부전동 240-8번지 외 1필지(240-24)</v>
+      <c r="C1659" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1659" s="1" t="s">
+        <v>4071</v>
       </c>
       <c r="E1659" s="1" t="s">
         <v>2865</v>
@@ -61594,28 +61635,23 @@
       <c r="G1659" s="1">
         <v>1</v>
       </c>
-      <c r="H1659" s="1" t="str">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1659" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1659" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1659" s="26"/>
       <c r="K1659" s="26">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>573.9</v>
       </c>
       <c r="L1659" s="26">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>7633.5307000000003</v>
       </c>
       <c r="M1659" s="1">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>122</v>
       </c>
       <c r="N1659" s="1">
-        <f>VLOOKUP(migration!A1659,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>20</v>
       </c>
       <c r="O1659" s="33">
@@ -61651,13 +61687,11 @@
       <c r="B1661" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C1661" s="1" t="str">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>호계온천주변지구 재개발정비사업</v>
-      </c>
-      <c r="D1661" s="1" t="str">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 안양시</v>
+      <c r="C1661" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1661" s="1" t="s">
+        <v>4072</v>
       </c>
       <c r="E1661" s="1" t="s">
         <v>3217</v>
@@ -61665,28 +61699,23 @@
       <c r="G1661" s="1">
         <v>1</v>
       </c>
-      <c r="H1661" s="1" t="str">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1661" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1661" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1661" s="26"/>
       <c r="K1661" s="26">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>32351.1</v>
       </c>
       <c r="L1661" s="26">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>158617.1845</v>
       </c>
       <c r="M1661" s="1">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1011</v>
       </c>
       <c r="N1661" s="1">
-        <f>VLOOKUP(migration!A1661,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>36</v>
       </c>
       <c r="O1661" s="33">
@@ -61762,13 +61791,11 @@
       <c r="B1667" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C1667" s="1" t="str">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>강릉 포남동 주상복합 신축공사</v>
-      </c>
-      <c r="D1667" s="1" t="str">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>강원도 강릉시 포남동 1153, 1153-2번지</v>
+      <c r="C1667" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1667" s="1" t="s">
+        <v>4073</v>
       </c>
       <c r="E1667" s="1" t="s">
         <v>3248</v>
@@ -61779,27 +61806,22 @@
       <c r="G1667" s="1">
         <v>1</v>
       </c>
-      <c r="H1667" s="1" t="str">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1667" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1667" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1667" s="26">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,10,FALSE)</f>
         <v>7675.4</v>
       </c>
       <c r="K1667" s="26">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>7675.4</v>
       </c>
       <c r="L1667" s="26">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>46709.54</v>
       </c>
       <c r="M1667" s="1">
-        <f>VLOOKUP(migration!A1667,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>260</v>
       </c>
       <c r="N1667" s="1">
@@ -61878,13 +61900,11 @@
       <c r="B1673" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C1673" s="1" t="str">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용인 마평 가로주택정비사업 신축공사</v>
-      </c>
-      <c r="D1673" s="1" t="str">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 용인시 처인구 마평동 730-8번지 외</v>
+      <c r="C1673" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D1673" s="1" t="s">
+        <v>4074</v>
       </c>
       <c r="E1673" s="1" t="s">
         <v>3233</v>
@@ -61895,28 +61915,23 @@
       <c r="G1673" s="1">
         <v>1</v>
       </c>
-      <c r="H1673" s="1" t="str">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1673" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1673" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1673" s="26"/>
       <c r="K1673" s="26">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2857.6</v>
       </c>
       <c r="L1673" s="26">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>19576.580000000002</v>
       </c>
       <c r="M1673" s="1">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>116</v>
       </c>
       <c r="N1673" s="1">
-        <f>VLOOKUP(migration!A1673,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>28</v>
       </c>
       <c r="O1673" s="33">
@@ -62022,36 +62037,29 @@
       <c r="B1682" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C1682" s="1" t="str">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>상도스타리움 지역주택 조합 아파트 신축공사</v>
-      </c>
-      <c r="D1682" s="1" t="str">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>서울특별시 동작구 상도동 182-13번지 일원</v>
-      </c>
-      <c r="H1682" s="1" t="str">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>지역주택조합</v>
+      <c r="C1682" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1682" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H1682" s="1" t="s">
+        <v>2731</v>
       </c>
       <c r="I1682" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1682" s="26"/>
       <c r="K1682" s="26">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>68258</v>
       </c>
       <c r="L1682" s="26">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>339622.16489999997</v>
       </c>
       <c r="M1682" s="1">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>2002</v>
       </c>
       <c r="N1682" s="1">
-        <f>VLOOKUP(migration!A1682,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1682" s="33"/>
@@ -62185,13 +62193,11 @@
       <c r="B1695" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C1695" s="1" t="str">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>북구 오룡동 1114번지 외 3필지 주상복합 신축공사 풍동실험</v>
-      </c>
-      <c r="D1695" s="1" t="str">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>광주광역시 북구 오룡동 114번지 외 3필지</v>
+      <c r="C1695" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1695" s="1" t="s">
+        <v>4076</v>
       </c>
       <c r="E1695" s="1" t="s">
         <v>2872</v>
@@ -62202,28 +62208,23 @@
       <c r="G1695" s="1">
         <v>1</v>
       </c>
-      <c r="H1695" s="1" t="str">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1695" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1695" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1695" s="26"/>
       <c r="K1695" s="26">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2435.1</v>
       </c>
       <c r="L1695" s="26">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>18810.575199999999</v>
       </c>
       <c r="M1695" s="1">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>68</v>
       </c>
       <c r="N1695" s="1">
-        <f>VLOOKUP(migration!A1695,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>20</v>
       </c>
       <c r="O1695" s="33">
@@ -62335,13 +62336,11 @@
       <c r="B1704" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C1704" s="1" t="str">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용인 남사(아곡)지구 7BL 공동주택 신축공사</v>
-      </c>
-      <c r="D1704" s="1" t="str">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 용인시 처인구 남사읍 아곡리705번지(7BL)</v>
+      <c r="C1704" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1704" s="1" t="s">
+        <v>4077</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>3233</v>
@@ -62352,28 +62351,23 @@
       <c r="G1704" s="1">
         <v>1</v>
       </c>
-      <c r="H1704" s="1" t="str">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1704" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1704" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1704" s="26"/>
       <c r="K1704" s="26">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>35413.9</v>
       </c>
       <c r="L1704" s="26">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>115667.6523</v>
       </c>
       <c r="M1704" s="1">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>600</v>
       </c>
       <c r="N1704" s="1">
-        <f>VLOOKUP(migration!A1704,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>27</v>
       </c>
       <c r="O1704" s="33">
@@ -62509,36 +62503,29 @@
       <c r="B1715" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C1715" s="1" t="str">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>영등포1의13구역 도시환경정비사업</v>
-      </c>
-      <c r="D1715" s="1" t="str">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>서울특별시 영등포구 영등포동5가 32-8 일원</v>
-      </c>
-      <c r="H1715" s="1" t="str">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="C1715" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D1715" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="H1715" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1715" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1715" s="26"/>
       <c r="K1715" s="26">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>17260.400000000001</v>
       </c>
       <c r="L1715" s="26">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>106912.79</v>
       </c>
       <c r="M1715" s="1">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>659</v>
       </c>
       <c r="N1715" s="1">
-        <f>VLOOKUP(migration!A1715,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>33</v>
       </c>
       <c r="O1715" s="33"/>
@@ -62560,13 +62547,11 @@
       <c r="B1717" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C1717" s="1" t="str">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>양주시 덕정동 단지#A1,B 오피스텔 신축공사</v>
-      </c>
-      <c r="D1717" s="1" t="str">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 양주시 덕정동 191외 2필지, 193-1외 4필지</v>
+      <c r="C1717" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1717" s="1" t="s">
+        <v>4079</v>
       </c>
       <c r="E1717" s="1" t="s">
         <v>3246</v>
@@ -62577,28 +62562,23 @@
       <c r="G1717" s="1">
         <v>1</v>
       </c>
-      <c r="H1717" s="1" t="str">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1717" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1717" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1717" s="26"/>
       <c r="K1717" s="26">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>2530</v>
       </c>
       <c r="L1717" s="26">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>6476.4403000000002</v>
       </c>
       <c r="M1717" s="1">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>50</v>
       </c>
       <c r="N1717" s="1">
-        <f>VLOOKUP(migration!A1717,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>13</v>
       </c>
       <c r="O1717" s="33">
@@ -62722,13 +62702,11 @@
       <c r="B1727" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C1727" s="1" t="str">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>울산광역시 KTX 역세권 M3블럭 대동콤플렉스 신축공사</v>
-      </c>
-      <c r="D1727" s="1" t="str">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>울산광역시 울주군 삼남읍 교동리 1679-1번지</v>
+      <c r="C1727" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1727" s="1" t="s">
+        <v>4080</v>
       </c>
       <c r="E1727" s="1" t="s">
         <v>2879</v>
@@ -62739,28 +62717,23 @@
       <c r="G1727" s="1">
         <v>1</v>
       </c>
-      <c r="H1727" s="1" t="str">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1727" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1727" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1727" s="26"/>
       <c r="K1727" s="26">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>25104.6</v>
       </c>
       <c r="L1727" s="26">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>233668.611</v>
       </c>
       <c r="M1727" s="1">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>480</v>
       </c>
       <c r="N1727" s="1">
-        <f>VLOOKUP(migration!A1727,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>40</v>
       </c>
       <c r="O1727" s="33">
@@ -62862,13 +62835,11 @@
       <c r="B1732" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C1732" s="1" t="str">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>동탄2택지개발지구 지원시설용지 76BL-1,2LTSETUP 복합시설 신축공사</v>
-      </c>
-      <c r="D1732" s="1" t="str">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>화성 동탄2택지개발지구 지원시설용지 76BL-1,2LT</v>
+      <c r="C1732" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>4081</v>
       </c>
       <c r="E1732" s="1" t="s">
         <v>3244</v>
@@ -62876,28 +62847,23 @@
       <c r="G1732" s="1">
         <v>1</v>
       </c>
-      <c r="H1732" s="1" t="str">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1732" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1732" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1732" s="26"/>
       <c r="K1732" s="26">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>45589</v>
       </c>
       <c r="L1732" s="26">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>92188.56</v>
       </c>
       <c r="M1732" s="1">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>836</v>
       </c>
       <c r="N1732" s="1">
-        <f>VLOOKUP(migration!A1732,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>24</v>
       </c>
       <c r="O1732" s="33">
@@ -62935,13 +62901,11 @@
       <c r="B1733" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C1733" s="1" t="str">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>대전 서남부터미널 주상복합 신축공사</v>
-      </c>
-      <c r="D1733" s="1" t="str">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>대전광역시 중구 유천동 341-1번지 일원</v>
+      <c r="C1733" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>4082</v>
       </c>
       <c r="E1733" s="1" t="s">
         <v>2838</v>
@@ -62949,28 +62913,23 @@
       <c r="F1733" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="H1733" s="1" t="str">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1733" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1733" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1733" s="26"/>
       <c r="K1733" s="26">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>22229</v>
       </c>
       <c r="L1733" s="26">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>219753.61</v>
       </c>
       <c r="M1733" s="1">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>132</v>
       </c>
       <c r="N1733" s="1">
-        <f>VLOOKUP(migration!A1733,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>49</v>
       </c>
       <c r="O1733" s="33"/>
@@ -63148,13 +63107,11 @@
       <c r="B1750" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C1750" s="1" t="str">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>대전광역시 서구 둔산동 917,918,919번지 복합시설 신축공사</v>
-      </c>
-      <c r="D1750" s="1" t="str">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>대전광역시 서구 둔산동 917,918,919번지</v>
+      <c r="C1750" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1750" s="1" t="s">
+        <v>4083</v>
       </c>
       <c r="E1750" s="1" t="s">
         <v>2838</v>
@@ -63165,28 +63122,23 @@
       <c r="G1750" s="1">
         <v>1</v>
       </c>
-      <c r="H1750" s="1" t="str">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1750" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1750" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1750" s="26"/>
       <c r="K1750" s="26">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>5265.99</v>
       </c>
       <c r="L1750" s="26">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>86671.32</v>
       </c>
       <c r="M1750" s="1">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>356</v>
       </c>
       <c r="N1750" s="1">
-        <f>VLOOKUP(migration!A1750,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>45</v>
       </c>
       <c r="O1750" s="33"/>
@@ -63264,13 +63216,11 @@
       <c r="B1757" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C1757" s="1" t="str">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>화성병점 복합타운 도시지원시설 지식산업센터 개발계획</v>
-      </c>
-      <c r="D1757" s="1" t="str">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>화성 병점동 690-3번지 일원 (화성병점복합타운 내 도시지원시설)</v>
+      <c r="C1757" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1757" s="1" t="s">
+        <v>4084</v>
       </c>
       <c r="E1757" s="1" t="s">
         <v>3244</v>
@@ -63281,24 +63231,20 @@
       <c r="G1757" s="1">
         <v>1</v>
       </c>
-      <c r="H1757" s="1" t="str">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1757" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1757" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1757" s="26"/>
       <c r="K1757" s="26">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>7412</v>
       </c>
       <c r="L1757" s="26">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>47839.54</v>
       </c>
       <c r="M1757" s="1">
-        <f>VLOOKUP(migration!A1757,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>62</v>
       </c>
       <c r="N1757" s="1">
@@ -63443,36 +63389,29 @@
       <c r="B1769" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C1769" s="1" t="str">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>인천검단지구 AB20-1BL 제일풍경채 신축사업</v>
-      </c>
-      <c r="D1769" s="1" t="str">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>인천광역시 서구 검단지구 내 AB20-1BL</v>
-      </c>
-      <c r="H1769" s="1" t="str">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1769" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="H1769" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1769" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1769" s="26"/>
       <c r="K1769" s="26">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>33721</v>
       </c>
       <c r="L1769" s="26">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>75809.549599999998</v>
       </c>
       <c r="M1769" s="1">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>610</v>
       </c>
       <c r="N1769" s="1">
-        <f>VLOOKUP(migration!A1769,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1769" s="33"/>
@@ -63544,13 +63483,11 @@
       <c r="B1776" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C1776" s="1" t="str">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>안성시 석정동 주상복합 신축공사</v>
-      </c>
-      <c r="D1776" s="1" t="str">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 안성시 석정동 154-11번지 일원</v>
+      <c r="C1776" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1776" s="1" t="s">
+        <v>4086</v>
       </c>
       <c r="E1776" s="1" t="s">
         <v>3242</v>
@@ -63561,28 +63498,23 @@
       <c r="G1776" s="1">
         <v>1</v>
       </c>
-      <c r="H1776" s="1" t="str">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1776" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1776" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1776" s="26"/>
       <c r="K1776" s="26">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>5572</v>
       </c>
       <c r="L1776" s="26">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>94936.806800000006</v>
       </c>
       <c r="M1776" s="1">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>466</v>
       </c>
       <c r="N1776" s="1">
-        <f>VLOOKUP(migration!A1776,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>49</v>
       </c>
       <c r="O1776" s="33">
@@ -63624,13 +63556,11 @@
       <c r="B1778" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C1778" s="1" t="str">
-        <f>VLOOKUP(migration!A1778,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>방배삼익아파트 주택재건축사업</v>
-      </c>
-      <c r="D1778" s="1" t="str">
-        <f>VLOOKUP(migration!A1778,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>서울특별시 서초구 방배동 1018-1 일대</v>
+      <c r="C1778" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D1778" s="1" t="s">
+        <v>4087</v>
       </c>
       <c r="E1778" s="1" t="s">
         <v>3221</v>
@@ -63641,9 +63571,8 @@
       <c r="G1778" s="1">
         <v>1</v>
       </c>
-      <c r="H1778" s="1" t="str">
-        <f>VLOOKUP(migration!A1778,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1778" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1778" s="24" t="s">
         <v>3236</v>
@@ -63652,7 +63581,6 @@
       <c r="K1778" s="26"/>
       <c r="L1778" s="26"/>
       <c r="M1778" s="1">
-        <f>VLOOKUP(migration!A1778,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>707</v>
       </c>
       <c r="O1778" s="33"/>
@@ -63674,9 +63602,8 @@
       <c r="B1780" s="25" t="s">
         <v>3240</v>
       </c>
-      <c r="C1780" s="1" t="str">
-        <f>VLOOKUP(migration!A1780,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>군관사(공릉) 위탁개발사업 공동주택 설계용역</v>
+      <c r="C1780" s="1" t="s">
+        <v>3141</v>
       </c>
       <c r="D1780" s="1" t="s">
         <v>3241</v>
@@ -63690,9 +63617,8 @@
       <c r="G1780" s="1">
         <v>1</v>
       </c>
-      <c r="H1780" s="1" t="str">
-        <f>VLOOKUP(migration!A1780,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>LH</v>
+      <c r="H1780" s="1" t="s">
+        <v>2733</v>
       </c>
       <c r="I1780" s="24" t="s">
         <v>3236</v>
@@ -63739,13 +63665,11 @@
       <c r="B1781" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C1781" s="1" t="str">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용인 처인구 전대리 192-2 공동주택</v>
-      </c>
-      <c r="D1781" s="1" t="str">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 용인시 처인구 포곡읍 전대리 192-2외 5필지</v>
+      <c r="C1781" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1781" s="1" t="s">
+        <v>4088</v>
       </c>
       <c r="E1781" s="1" t="s">
         <v>3233</v>
@@ -63756,28 +63680,23 @@
       <c r="G1781" s="1">
         <v>1</v>
       </c>
-      <c r="H1781" s="1" t="str">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1781" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1781" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1781" s="26"/>
       <c r="K1781" s="26">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>15052.1</v>
       </c>
       <c r="L1781" s="26">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>54892.221599999997</v>
       </c>
       <c r="M1781" s="1">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>348</v>
       </c>
       <c r="N1781" s="1">
-        <f>VLOOKUP(migration!A1781,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1781" s="33">
@@ -63824,9 +63743,8 @@
       <c r="G1782" s="1">
         <v>1</v>
       </c>
-      <c r="H1782" s="1" t="str">
-        <f>VLOOKUP(migration!A1782,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>지역주택조합</v>
+      <c r="H1782" s="1" t="s">
+        <v>2731</v>
       </c>
       <c r="I1782" s="24" t="s">
         <v>3236</v>
@@ -63941,13 +63859,11 @@
       <c r="B1790" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C1790" s="1" t="str">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>퇴계원역 1차 지역주택조합 아파트 신축공사</v>
-      </c>
-      <c r="D1790" s="1" t="str">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 남양주시 퇴계원읍 퇴계원리 142-27번지 일원</v>
+      <c r="C1790" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1790" s="1" t="s">
+        <v>4089</v>
       </c>
       <c r="E1790" s="1" t="s">
         <v>3230</v>
@@ -63958,28 +63874,23 @@
       <c r="G1790" s="1">
         <v>1</v>
       </c>
-      <c r="H1790" s="1" t="str">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>지역주택조합</v>
+      <c r="H1790" s="1" t="s">
+        <v>2731</v>
       </c>
       <c r="I1790" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1790" s="26"/>
       <c r="K1790" s="26">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>8944.6650000000009</v>
       </c>
       <c r="L1790" s="26">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>33678.5</v>
       </c>
       <c r="M1790" s="1">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>228</v>
       </c>
       <c r="N1790" s="1">
-        <f>VLOOKUP(migration!A1790,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1790" s="33">
@@ -64067,13 +63978,11 @@
       <c r="B1796" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C1796" s="1" t="str">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>울산 삼산동 주상복합 프로젝트</v>
-      </c>
-      <c r="D1796" s="1" t="str">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>울산광역시 남구 삼산동 1559-19번지 일대</v>
+      <c r="C1796" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1796" s="1" t="s">
+        <v>4090</v>
       </c>
       <c r="E1796" s="1" t="s">
         <v>2879</v>
@@ -64084,28 +63993,23 @@
       <c r="G1796" s="1">
         <v>1</v>
       </c>
-      <c r="H1796" s="1" t="str">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1796" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1796" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1796" s="26"/>
       <c r="K1796" s="26">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>4654.1000000000004</v>
       </c>
       <c r="L1796" s="26">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>62438.79</v>
       </c>
       <c r="M1796" s="1">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>152</v>
       </c>
       <c r="N1796" s="1">
-        <f>VLOOKUP(migration!A1796,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>42</v>
       </c>
       <c r="O1796" s="33">
@@ -64157,13 +64061,11 @@
       <c r="B1799" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C1799" s="1" t="str">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>충북 음성군 읍내리 주상복합 풍동실험용역</v>
-      </c>
-      <c r="D1799" s="1" t="str">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>충청북도 음성군 음성읍 읍내리 489-6외 20필지</v>
+      <c r="C1799" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D1799" s="1" t="s">
+        <v>4091</v>
       </c>
       <c r="E1799" s="1" t="s">
         <v>3234</v>
@@ -64174,28 +64076,23 @@
       <c r="G1799" s="1">
         <v>1</v>
       </c>
-      <c r="H1799" s="1" t="str">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1799" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1799" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1799" s="26"/>
       <c r="K1799" s="26">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>3459.9</v>
       </c>
       <c r="L1799" s="26">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>44345.8802</v>
       </c>
       <c r="M1799" s="1">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>244</v>
       </c>
       <c r="N1799" s="1">
-        <f>VLOOKUP(migration!A1799,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>36</v>
       </c>
       <c r="O1799" s="33"/>
@@ -64359,13 +64256,11 @@
       <c r="B1815" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C1815" s="1" t="str">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용인 금어지구 지구단위계획구역 내 공동주택 신축공사</v>
-      </c>
-      <c r="D1815" s="1" t="str">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 용인시 처인구 포곡읍 금어리 646번지 일원</v>
+      <c r="C1815" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D1815" s="1" t="s">
+        <v>4092</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>3233</v>
@@ -64376,28 +64271,23 @@
       <c r="G1815" s="1">
         <v>1</v>
       </c>
-      <c r="H1815" s="1" t="str">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1815" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1815" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1815" s="26"/>
       <c r="K1815" s="26">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>58746</v>
       </c>
       <c r="L1815" s="26">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>207401.261</v>
       </c>
       <c r="M1815" s="1">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1275</v>
       </c>
       <c r="N1815" s="1">
-        <f>VLOOKUP(migration!A1815,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1815" s="33">
@@ -64475,13 +64365,11 @@
       <c r="B1820" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C1820" s="1" t="str">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>청주시 오승읍 연제리 00 오피스텔 1,2단지</v>
-      </c>
-      <c r="D1820" s="1" t="str">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>청주시 흥덕구 오송읍 연제리 664-1번지</v>
+      <c r="C1820" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D1820" s="1" t="s">
+        <v>4093</v>
       </c>
       <c r="E1820" s="1" t="s">
         <v>3228</v>
@@ -64492,28 +64380,23 @@
       <c r="G1820" s="1">
         <v>1</v>
       </c>
-      <c r="H1820" s="1" t="str">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1820" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1820" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1820" s="26"/>
       <c r="K1820" s="26">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>43688.7</v>
       </c>
       <c r="L1820" s="26">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>144184.46580000001</v>
       </c>
       <c r="M1820" s="1">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>904</v>
       </c>
       <c r="N1820" s="1">
-        <f>VLOOKUP(migration!A1820,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>28</v>
       </c>
       <c r="O1820" s="33">
@@ -64789,13 +64672,11 @@
       <c r="B1840" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C1840" s="1" t="str">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>남양주 마석우3지구 1-1BL 지역주택조합아파트 신축공사</v>
-      </c>
-      <c r="D1840" s="1" t="str">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 남양주시 화도읍 마석우리 160번지 일원</v>
+      <c r="C1840" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1840" s="1" t="s">
+        <v>4094</v>
       </c>
       <c r="E1840" s="1" t="s">
         <v>3230</v>
@@ -64806,31 +64687,25 @@
       <c r="G1840" s="1">
         <v>1</v>
       </c>
-      <c r="H1840" s="1" t="str">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>지역주택조합</v>
+      <c r="H1840" s="1" t="s">
+        <v>2731</v>
       </c>
       <c r="I1840" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1840" s="26">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,10,FALSE)</f>
         <v>107290</v>
       </c>
       <c r="K1840" s="26">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>41683</v>
       </c>
       <c r="L1840" s="26">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>138442.96900000001</v>
       </c>
       <c r="M1840" s="1">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>996</v>
       </c>
       <c r="N1840" s="1">
-        <f>VLOOKUP(migration!A1840,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1840" s="33">
@@ -64990,13 +64865,11 @@
       <c r="B1849" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C1849" s="1" t="str">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>남주동 8구역 가로주택 정비사업</v>
-      </c>
-      <c r="D1849" s="1" t="str">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>충청북도 청주시 상당구 남주동 180번지 일원</v>
+      <c r="C1849" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1849" s="1" t="s">
+        <v>4095</v>
       </c>
       <c r="E1849" s="1" t="s">
         <v>3229</v>
@@ -65007,28 +64880,23 @@
       <c r="G1849" s="1">
         <v>1</v>
       </c>
-      <c r="H1849" s="1" t="str">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1849" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1849" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1849" s="26"/>
       <c r="K1849" s="26">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>8884.1</v>
       </c>
       <c r="L1849" s="26">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>84173.119999999995</v>
       </c>
       <c r="M1849" s="1">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>478</v>
       </c>
       <c r="N1849" s="1">
-        <f>VLOOKUP(migration!A1849,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>38</v>
       </c>
       <c r="O1849" s="33">
@@ -65174,35 +65042,29 @@
       <c r="B1860" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C1860" s="1" t="str">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>동작구 수방사 위탁개발사업 공동주택 설계용역</v>
+      <c r="C1860" s="1" t="s">
+        <v>3151</v>
       </c>
       <c r="G1860" s="1">
         <v>1</v>
       </c>
-      <c r="H1860" s="1" t="str">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>LH</v>
+      <c r="H1860" s="1" t="s">
+        <v>2733</v>
       </c>
       <c r="I1860" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1860" s="26"/>
       <c r="K1860" s="26">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>20291</v>
       </c>
       <c r="L1860" s="26">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>87132.04</v>
       </c>
       <c r="M1860" s="1">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>556</v>
       </c>
       <c r="N1860" s="1">
-        <f>VLOOKUP(migration!A1860,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1860" s="33">
@@ -65302,13 +65164,11 @@
       <c r="B1866" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="C1866" s="1" t="str">
-        <f>VLOOKUP(migration!A1866,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>경북도청신도시2단계 S-2,3블록 중흥 S-클래스/대우 푸르지오 아파트 신축공사</v>
-      </c>
-      <c r="H1866" s="1" t="str">
-        <f>VLOOKUP(migration!A1866,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1866" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="H1866" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1866" s="24" t="s">
         <v>3236</v>
@@ -65567,36 +65427,29 @@
       <c r="B1891" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C1891" s="1" t="str">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>부산 해운대구 우동 626-1번지 일원 생활형숙박시설 신축공사</v>
-      </c>
-      <c r="D1891" s="1" t="str">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산 해운대구 우동 626-1,9,10</v>
-      </c>
-      <c r="H1891" s="1" t="str">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="C1891" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1891" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="H1891" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1891" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1891" s="26"/>
       <c r="K1891" s="26">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1523</v>
       </c>
       <c r="L1891" s="26">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>22593</v>
       </c>
       <c r="M1891" s="1">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>48</v>
       </c>
       <c r="N1891" s="1">
-        <f>VLOOKUP(migration!A1891,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>33</v>
       </c>
       <c r="O1891" s="33"/>
@@ -65688,9 +65541,8 @@
       <c r="B1900" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C1900" s="1" t="str">
-        <f>VLOOKUP(migration!A1900,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>광주 종합운동장(주경기장) 건립공사 설계용역</v>
+      <c r="C1900" s="1" t="s">
+        <v>3154</v>
       </c>
       <c r="D1900" s="1" t="s">
         <v>3224</v>
@@ -65704,9 +65556,8 @@
       <c r="G1900" s="1">
         <v>1</v>
       </c>
-      <c r="H1900" s="1" t="str">
-        <f>VLOOKUP(migration!A1900,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>기타</v>
+      <c r="H1900" s="1" t="s">
+        <v>3262</v>
       </c>
       <c r="I1900" s="24" t="s">
         <v>3260</v>
@@ -65896,13 +65747,11 @@
       <c r="B1916" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="C1916" s="1" t="str">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>영주시 휴천동 공동주택 신축공사</v>
-      </c>
-      <c r="D1916" s="1" t="str">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경상북도 영주시 휴천동 산1-1번지 일원</v>
+      <c r="C1916" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1916" s="1" t="s">
+        <v>4097</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3222</v>
@@ -65913,28 +65762,23 @@
       <c r="G1916" s="1">
         <v>1</v>
       </c>
-      <c r="H1916" s="1" t="str">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1916" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1916" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1916" s="26"/>
       <c r="K1916" s="26">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>19767</v>
       </c>
       <c r="L1916" s="26">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>48321.403200000001</v>
       </c>
       <c r="M1916" s="1">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>428</v>
       </c>
       <c r="N1916" s="1">
-        <f>VLOOKUP(migration!A1916,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>20</v>
       </c>
       <c r="O1916" s="33">
@@ -65976,9 +65820,8 @@
       <c r="B1918" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C1918" s="1" t="str">
-        <f>VLOOKUP(migration!A1918,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>강남구 신사동 오피스텔</v>
+      <c r="C1918" s="1" t="s">
+        <v>3156</v>
       </c>
       <c r="D1918" s="1" t="s">
         <v>3220</v>
@@ -65992,9 +65835,8 @@
       <c r="G1918" s="1">
         <v>1</v>
       </c>
-      <c r="H1918" s="1" t="str">
-        <f>VLOOKUP(migration!A1918,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1918" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1918" s="1" t="s">
         <v>2868</v>
@@ -66038,13 +65880,11 @@
       <c r="B1920" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C1920" s="1" t="str">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>범천동 870-26번지 오피스텔 신축공사</v>
-      </c>
-      <c r="D1920" s="1" t="str">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 부산진구 범천동 870-26번지 외 3필지 (870-29, 870-37, 870-38)</v>
+      <c r="C1920" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1920" s="1" t="s">
+        <v>4098</v>
       </c>
       <c r="E1920" s="1" t="s">
         <v>2865</v>
@@ -66055,28 +65895,23 @@
       <c r="G1920" s="1">
         <v>1</v>
       </c>
-      <c r="H1920" s="1" t="str">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1920" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1920" s="1" t="s">
         <v>2868</v>
       </c>
       <c r="J1920" s="26"/>
       <c r="K1920" s="26">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>776.8</v>
       </c>
       <c r="L1920" s="26">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>10525.34</v>
       </c>
       <c r="M1920" s="1">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>94</v>
       </c>
       <c r="N1920" s="1">
-        <f>VLOOKUP(migration!A1920,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>25</v>
       </c>
       <c r="O1920" s="33">
@@ -66112,13 +65947,11 @@
       <c r="B1922" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C1922" s="1" t="str">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>대전광역시 중구 유천동 332-28번지 일원 주거복합 신축공사</v>
-      </c>
-      <c r="D1922" s="1" t="str">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>대전광역시 중구 유천동 332-28 일원</v>
+      <c r="C1922" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D1922" s="1" t="s">
+        <v>4099</v>
       </c>
       <c r="E1922" s="1" t="s">
         <v>2838</v>
@@ -66129,28 +65962,23 @@
       <c r="G1922" s="1">
         <v>1</v>
       </c>
-      <c r="H1922" s="1" t="str">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1922" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1922" s="1" t="s">
         <v>3169</v>
       </c>
       <c r="J1922" s="26"/>
       <c r="K1922" s="26">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>6259.67</v>
       </c>
       <c r="L1922" s="26">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>83427.061900000001</v>
       </c>
       <c r="M1922" s="1">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>324</v>
       </c>
       <c r="N1922" s="1">
-        <f>VLOOKUP(migration!A1922,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>47</v>
       </c>
       <c r="O1922" s="33">
@@ -66208,13 +66036,11 @@
       <c r="B1925" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="C1925" s="1" t="str">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>서면4차 봄여름가을겨울 신축공사</v>
-      </c>
-      <c r="D1925" s="1" t="str">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 부산진구 당감동 866-1번지 외 30필지</v>
+      <c r="C1925" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D1925" s="1" t="s">
+        <v>4100</v>
       </c>
       <c r="E1925" s="1" t="s">
         <v>2865</v>
@@ -66225,28 +66051,23 @@
       <c r="G1925" s="1">
         <v>1</v>
       </c>
-      <c r="H1925" s="1" t="str">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1925" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1925" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1925" s="26"/>
       <c r="K1925" s="26">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>5339.7</v>
       </c>
       <c r="L1925" s="26">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>89534.102599999998</v>
       </c>
       <c r="M1925" s="1">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>624</v>
       </c>
       <c r="N1925" s="1">
-        <f>VLOOKUP(migration!A1925,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>39</v>
       </c>
       <c r="O1925" s="33">
@@ -66330,13 +66151,11 @@
       <c r="B1930" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C1930" s="1" t="str">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>안양시 관양동 지식산업센터 신축공사</v>
-      </c>
-      <c r="D1930" s="1" t="str">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 안양시 동안구 관양동 951-1</v>
+      <c r="C1930" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D1930" s="1" t="s">
+        <v>4101</v>
       </c>
       <c r="E1930" s="1" t="s">
         <v>3217</v>
@@ -66347,28 +66166,23 @@
       <c r="G1930" s="1">
         <v>1</v>
       </c>
-      <c r="H1930" s="1" t="str">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1930" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1930" s="24" t="s">
         <v>3258</v>
       </c>
       <c r="J1930" s="26"/>
       <c r="K1930" s="26">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1287</v>
       </c>
       <c r="L1930" s="26">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>8518.07</v>
       </c>
       <c r="M1930" s="1">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>66</v>
       </c>
       <c r="N1930" s="1">
-        <f>VLOOKUP(migration!A1930,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>18</v>
       </c>
       <c r="O1930" s="33">
@@ -66544,13 +66358,11 @@
       <c r="B1946" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="C1946" s="1" t="str">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>우동1구역 재건축정비사업</v>
-      </c>
-      <c r="D1946" s="1" t="str">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부산광역시 해운대구 우동 1104-1번지 일원</v>
+      <c r="C1946" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1946" s="1" t="s">
+        <v>4102</v>
       </c>
       <c r="E1946" s="1" t="s">
         <v>3216</v>
@@ -66561,31 +66373,25 @@
       <c r="G1946" s="1">
         <v>1</v>
       </c>
-      <c r="H1946" s="1" t="str">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1946" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1946" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1946" s="26">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,10,FALSE)</f>
         <v>79508</v>
       </c>
       <c r="K1946" s="26">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>70688</v>
       </c>
       <c r="L1946" s="26">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>299704.21000000002</v>
       </c>
       <c r="M1946" s="1">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1303</v>
       </c>
       <c r="N1946" s="1">
-        <f>VLOOKUP(migration!A1946,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1946" s="33"/>
@@ -66607,13 +66413,11 @@
       <c r="B1948" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="C1948" s="1" t="str">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>이천시 안흥지구 주거복합 신축공사 1,2,3BL</v>
-      </c>
-      <c r="D1948" s="1" t="str">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 이천시 안흥동 277-12, 279-1, 284-2번지 일대</v>
+      <c r="C1948" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1948" s="1" t="s">
+        <v>4103</v>
       </c>
       <c r="E1948" s="1" t="s">
         <v>3213</v>
@@ -66624,28 +66428,23 @@
       <c r="G1948" s="1">
         <v>2</v>
       </c>
-      <c r="H1948" s="1" t="str">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1948" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1948" s="1" t="s">
         <v>3169</v>
       </c>
       <c r="J1948" s="26"/>
       <c r="K1948" s="26">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>14636</v>
       </c>
       <c r="L1948" s="26">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>194307.05</v>
       </c>
       <c r="M1948" s="1">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>994</v>
       </c>
       <c r="N1948" s="1">
-        <f>VLOOKUP(migration!A1948,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>49</v>
       </c>
       <c r="O1948" s="33">
@@ -66755,13 +66554,11 @@
       <c r="B1949" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="C1949" s="1" t="str">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>강원도 원주시 단구동 A1,A2BL 도시개발사업</v>
-      </c>
-      <c r="D1949" s="1" t="str">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>강원도 원주시 단구동 922번지 일원 도시개발사업 구역 내 A1,2블럭</v>
+      <c r="C1949" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1949" s="1" t="s">
+        <v>4104</v>
       </c>
       <c r="E1949" s="1" t="s">
         <v>3209</v>
@@ -66772,31 +66569,25 @@
       <c r="G1949" s="1">
         <v>1</v>
       </c>
-      <c r="H1949" s="1" t="str">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1949" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1949" s="24" t="s">
         <v>3259</v>
       </c>
       <c r="J1949" s="26">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,10,FALSE)</f>
         <v>98607.6</v>
       </c>
       <c r="K1949" s="26">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>63860.800000000003</v>
       </c>
       <c r="L1949" s="26">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>265432.37190000003</v>
       </c>
       <c r="M1949" s="1">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1540</v>
       </c>
       <c r="N1949" s="1">
-        <f>VLOOKUP(migration!A1949,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>29</v>
       </c>
       <c r="O1949" s="33">
@@ -66862,13 +66653,11 @@
       <c r="B1951" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="C1951" s="1" t="str">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>합정주공 835번지 일대 주택재건축정비사업 풍동실험 용역</v>
-      </c>
-      <c r="D1951" s="1" t="str">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 평택시 합정동 835번지 일원</v>
+      <c r="C1951" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1951" s="1" t="s">
+        <v>4105</v>
       </c>
       <c r="E1951" s="1" t="s">
         <v>3211</v>
@@ -66879,9 +66668,8 @@
       <c r="G1951" s="1">
         <v>1</v>
       </c>
-      <c r="H1951" s="1" t="str">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>정비사업</v>
+      <c r="H1951" s="1" t="s">
+        <v>3463</v>
       </c>
       <c r="I1951" s="24" t="s">
         <v>3236</v>
@@ -66889,15 +66677,12 @@
       <c r="J1951" s="26"/>
       <c r="K1951" s="26"/>
       <c r="L1951" s="26">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>317064.59000000003</v>
       </c>
       <c r="M1951" s="1">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1918</v>
       </c>
       <c r="N1951" s="1">
-        <f>VLOOKUP(migration!A1951,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>35</v>
       </c>
       <c r="O1951" s="33"/>
@@ -67043,13 +66828,11 @@
       <c r="B1965" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C1965" s="1" t="str">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>파주운정3지구 A19BL 공동주택 신축공사</v>
-      </c>
-      <c r="D1965" s="1" t="str">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 파주시 목동동 산 26일원 (파주운정3지구 A19BL)</v>
+      <c r="C1965" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1965" s="1" t="s">
+        <v>4106</v>
       </c>
       <c r="E1965" s="1" t="s">
         <v>3208</v>
@@ -67060,28 +66843,23 @@
       <c r="G1965" s="1">
         <v>1</v>
       </c>
-      <c r="H1965" s="1" t="str">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1965" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1965" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J1965" s="26"/>
       <c r="K1965" s="26">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>65829.069399999993</v>
       </c>
       <c r="L1965" s="26">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>175867.12479999999</v>
       </c>
       <c r="M1965" s="1">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>988</v>
       </c>
       <c r="N1965" s="1">
-        <f>VLOOKUP(migration!A1965,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>28</v>
       </c>
       <c r="O1965" s="33">
@@ -67159,9 +66937,8 @@
       <c r="B1970" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C1970" s="1" t="str">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>오산 궐동 주상복합 신축공사</v>
+      <c r="C1970" s="1" t="s">
+        <v>2279</v>
       </c>
       <c r="D1970" s="1" t="s">
         <v>3197</v>
@@ -67175,28 +66952,23 @@
       <c r="G1970" s="1">
         <v>1</v>
       </c>
-      <c r="H1970" s="1" t="str">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1970" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1970" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1970" s="26"/>
       <c r="K1970" s="26">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>1752.37</v>
       </c>
       <c r="L1970" s="26">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>28038.55</v>
       </c>
       <c r="M1970" s="1">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>192</v>
       </c>
       <c r="N1970" s="1">
-        <f>VLOOKUP(migration!A1970,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>26</v>
       </c>
       <c r="O1970" s="33">
@@ -67228,13 +67000,11 @@
       <c r="B1971" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="C1971" s="1" t="str">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>심곡본동 552-4외 3필지 주상복합시설 신축공사</v>
-      </c>
-      <c r="D1971" s="1" t="str">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>부천시 심곡본동 552-4, 552-7, 552-9, 552-11</v>
+      <c r="C1971" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D1971" s="1" t="s">
+        <v>4107</v>
       </c>
       <c r="E1971" s="1" t="s">
         <v>3207</v>
@@ -67245,28 +67015,23 @@
       <c r="G1971" s="1">
         <v>1</v>
       </c>
-      <c r="H1971" s="1" t="str">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H1971" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I1971" s="24" t="s">
         <v>3178</v>
       </c>
       <c r="J1971" s="26"/>
       <c r="K1971" s="26">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>690.7</v>
       </c>
       <c r="L1971" s="26">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>7357.5</v>
       </c>
       <c r="M1971" s="1">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>60</v>
       </c>
       <c r="N1971" s="1">
-        <f>VLOOKUP(migration!A1971,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>20</v>
       </c>
       <c r="O1971" s="33">
@@ -67668,13 +67433,11 @@
       <c r="B2009" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="C2009" s="1" t="str">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,3,FALSE)</f>
-        <v>용인동백 공동주택 풍동실험</v>
-      </c>
-      <c r="D2009" s="1" t="str">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,4,FALSE)</f>
-        <v>경기도 용인시 기흥구 동백동 419-1번지 일원</v>
+      <c r="C2009" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D2009" s="1" t="s">
+        <v>3474</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>2840</v>
@@ -67685,28 +67448,23 @@
       <c r="G2009" s="1">
         <v>1</v>
       </c>
-      <c r="H2009" s="1" t="str">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,8,FALSE)</f>
-        <v>일반건축</v>
+      <c r="H2009" s="1" t="s">
+        <v>3467</v>
       </c>
       <c r="I2009" s="24" t="s">
         <v>3236</v>
       </c>
       <c r="J2009" s="26"/>
       <c r="K2009" s="26">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,11,FALSE)</f>
         <v>51912.6</v>
       </c>
       <c r="L2009" s="26">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,12,FALSE)</f>
         <v>199957.9179</v>
       </c>
       <c r="M2009" s="1">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,13,FALSE)</f>
         <v>1187</v>
       </c>
       <c r="N2009" s="1">
-        <f>VLOOKUP(migration!A2009,계약완료!$B$4:$O$568,14,FALSE)</f>
         <v>32</v>
       </c>
       <c r="O2009" s="33">
